--- a/xlsx/日本天皇_intext.xlsx
+++ b/xlsx/日本天皇_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="908">
   <si>
     <t>日本天皇</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%9A%87_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>天皇 (消歧義)</t>
+    <t>天皇 (消歧义)</t>
   </si>
   <si>
     <t>政策_政策_行政_日本天皇</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%8A%E8%8A%B1%E7%B4%8B%E7%AB%A0</t>
   </si>
   <si>
-    <t>菊花紋章</t>
+    <t>菊花纹章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E4%BB%81</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%BA%E5%AE%9A%E7%B9%BC%E6%89%BF%E4%BA%BA</t>
   </si>
   <si>
-    <t>確定繼承人</t>
+    <t>确定继承人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E4%BB%81%E8%A6%AA%E7%8E%8B</t>
   </si>
   <si>
-    <t>德仁親王</t>
+    <t>德仁亲王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AD%A6%E5%A4%A9%E7%9A%87</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B1%85</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%9A%87%E4%BD%8D%E7%B9%BC%E6%89%BF%E9%A0%86%E5%BA%8F</t>
   </si>
   <si>
-    <t>日本皇位繼承順序</t>
+    <t>日本皇位继承顺序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%9A%87%E5%AE%A4</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>國會 (日本)</t>
+    <t>国会 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%97%E8%AE%AE%E9%99%A2_(%E6%97%A5%E6%9C%AC)</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%B6%E7%90%86%E6%A3%AE</t>
   </si>
   <si>
-    <t>大島理森</t>
+    <t>大岛理森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>參議院 (日本)</t>
+    <t>参议院 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF_(%E6%97%A5%E6%9C%AC)</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%81%94%E5%BF%A0%E4%B8%80</t>
   </si>
   <si>
-    <t>伊達忠一</t>
+    <t>伊达忠一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B0%8D%E9%BB%A8%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>反對黨領袖</t>
+    <t>反对党领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9D%E9%87%8E%E5%B9%B8%E7%94%B7</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%A7%E9%96%A3%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>日本內閣總理大臣</t>
+    <t>日本内阁总理大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E6%99%8B%E4%B8%89</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%B8%BD%E7%90%86_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>副總理 (日本)</t>
+    <t>副总理 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%94%9F%E5%A4%AA%E9%83%8E</t>
@@ -209,19 +209,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>日本內閣</t>
+    <t>日本内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8B%99%E5%A4%A7%E8%87%A3_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>國務大臣 (日本)</t>
+    <t>国务大臣 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>日本行政機關</t>
+    <t>日本行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E4%BA%BA</t>
@@ -263,7 +263,7 @@
     <t>https://ja.wikipedia.org/wiki/%E7%9F%A5%E7%9A%84%E8%B2%A1%E7%94%A3%E9%AB%98%E7%AD%89%E8%A3%81%E5%88%A4%E6%89%80</t>
   </si>
   <si>
-    <t>ja-知的財産高等裁判所</t>
+    <t>ja-知的财产高等裁判所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E9%81%93%E5%BA%9C%E7%B8%A3</t>
   </si>
   <si>
-    <t>都道府縣</t>
+    <t>都道府县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E4%BA%8B</t>
@@ -293,85 +293,85 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E5%8D%80</t>
   </si>
   <si>
-    <t>特別區</t>
+    <t>特别区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E8%81%AF%E5%90%88</t>
   </si>
   <si>
-    <t>廣域聯合</t>
+    <t>广域联合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>日本選舉</t>
+    <t>日本选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC21%E5%B1%86%E6%97%A5%E6%9C%AC%E5%8F%83%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E9%80%9A%E5%B8%B8%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第21屆日本參議院議員通常選舉</t>
+    <t>第21届日本参议院议员通常选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC22%E5%B1%86%E6%97%A5%E6%9C%AC%E5%8F%83%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E9%80%9A%E5%B8%B8%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第22屆日本參議院議員通常選舉</t>
+    <t>第22届日本参议院议员通常选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC23%E5%B1%86%E6%97%A5%E6%9C%AC%E5%8F%83%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E9%80%9A%E5%B8%B8%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第23屆日本參議院議員通常選舉</t>
+    <t>第23届日本参议院议员通常选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC24%E5%B1%86%E6%97%A5%E6%9C%AC%E5%8F%83%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E9%80%9A%E5%B8%B8%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第24屆日本參議院議員通常選舉</t>
+    <t>第24届日本参议院议员通常选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC45%E5%B1%86%E6%97%A5%E6%9C%AC%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E7%B8%BD%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第45屆日本眾議院議員總選舉</t>
+    <t>第45届日本众议院议员总选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC46%E5%B1%86%E6%97%A5%E6%9C%AC%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E7%B8%BD%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第46屆日本眾議院議員總選舉</t>
+    <t>第46届日本众议院议员总选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC47%E5%B1%86%E6%97%A5%E6%9C%AC%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E7%B8%BD%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第47屆日本眾議院議員總選舉</t>
+    <t>第47届日本众议院议员总选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC48%E5%B1%86%E6%97%A5%E6%9C%AC%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E5%93%A1%E7%B8%BD%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>第48屆日本眾議院議員總選舉</t>
+    <t>第48届日本众议院议员总选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>日本政黨列表</t>
+    <t>日本政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>自由民主黨 (日本)</t>
+    <t>自由民主党 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%86%B2%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>立憲民主黨 (日本)</t>
+    <t>立宪民主党 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E4%B9%8B%E5%85%9A</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%98%8E%E9%BB%A8</t>
   </si>
   <si>
-    <t>公明黨</t>
+    <t>公明党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>日本共產黨</t>
+    <t>日本共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%B6%AD%E6%96%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>日本維新會</t>
+    <t>日本维新会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A4%96%E4%BA%A4</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>日本軍事</t>
+    <t>日本军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>日本人權</t>
+    <t>日本人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%BF%E6%B2%BB%E5%88%97%E8%A1%A8</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>現代</t>
+    <t>现代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D</t>
@@ -473,31 +473,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%B6%AD%E6%96%B0</t>
   </si>
   <si>
-    <t>明治維新</t>
+    <t>明治维新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>大日本帝國憲法</t>
+    <t>大日本帝国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>日本國憲法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%B1%A1%E5%BE%B5</t>
   </si>
   <si>
-    <t>國家象徵</t>
+    <t>国家象征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%81%E5%A4%A9%E7%9A%87%E5%88%B6</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>日本歷史</t>
+    <t>日本历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%93%E6%B0%8F</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E5%92%8C%E5%A4%A9%E7%9A%87</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%96%93%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>人間宣言</t>
+    <t>人间宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E4%B8%8A%E5%A4%A9%E7%9A%87</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%95%E5%B4%A9</t>
   </si>
   <si>
-    <t>駕崩</t>
+    <t>驾崩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E5%A4%A9%E7%9A%87</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>聯盟</t>
+    <t>联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%BA%9C</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%A0%98</t>
   </si>
   <si>
-    <t>首領</t>
+    <t>首领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%8E%8B</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9B%B8%E7%B4%80</t>
   </si>
   <si>
-    <t>日本書紀</t>
+    <t>日本书纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%8F%A4%E5%A4%A9%E7%9A%87</t>
@@ -773,31 +770,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本神話</t>
+    <t>日本神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BA%8B%E8%A8%98</t>
   </si>
   <si>
-    <t>古事記</t>
+    <t>古事记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A5%9E%E8%AF%9D</t>
   </si>
   <si>
-    <t>日本神话</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E4%B8%87%E4%B8%96%E4%B8%80%E7%B3%BB</t>
@@ -809,9 +803,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>日本历史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%B7%9E%E5%B2%9B</t>
   </si>
   <si>
@@ -833,25 +824,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>國王</t>
+    <t>国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國歷史</t>
+    <t>中国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%A3%BD</t>
   </si>
   <si>
-    <t>陳壽</t>
+    <t>陈寿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8B%E5%BF%97</t>
   </si>
   <si>
-    <t>三國志</t>
+    <t>三国志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AD%E4%BA%BA</t>
@@ -869,13 +860,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%BB%B4%E6%96%B0</t>
   </si>
   <si>
-    <t>明治维新</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>大和國</t>
+    <t>大和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%B7%9E</t>
@@ -893,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E9%97%9C%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>攝關政治</t>
+    <t>摄关政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E6%B0%8F</t>
@@ -911,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AA%E8%AE%93</t>
   </si>
   <si>
-    <t>禪讓</t>
+    <t>禅让</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E7%9A%87</t>
@@ -935,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%83%E9%AB%AE</t>
   </si>
   <si>
-    <t>剃髮</t>
+    <t>剃发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%9A%87</t>
@@ -947,25 +935,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%BD%E8%97%8D</t>
   </si>
   <si>
-    <t>伽藍</t>
+    <t>伽蓝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%AE%B6%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>武家政權</t>
+    <t>武家政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF</t>
   </si>
   <si>
-    <t>軍政</t>
+    <t>军政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E5%A4%B7%E5%A4%A7%E5%B0%87%E8%BB%8D</t>
   </si>
   <si>
-    <t>征夷大將軍</t>
+    <t>征夷大将军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8D%BF</t>
@@ -983,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%8F%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>平氏政權</t>
+    <t>平氏政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B0%E4%BB%93%E5%B9%95%E5%BA%9C</t>
@@ -1013,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>政治權力</t>
+    <t>政治权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%94%BF%E5%A5%89%E8%BF%98</t>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A5%9E%E9%81%93</t>
@@ -1067,7 +1055,7 @@
     <t>https://ja.wikipedia.org/wiki/%E7%8F%BE%E4%BA%BA%E7%A5%9E</t>
   </si>
   <si>
-    <t>ja-現人神</t>
+    <t>ja-现人神</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%9D%A1%E8%8B%B1%E6%9C%BA</t>
@@ -1079,31 +1067,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%8A%97%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>中國抗日戰爭</t>
+    <t>中国抗日战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第二次世界大戰)</t>
+    <t>同盟国 (第二次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
-    <t>同盟國軍事佔領日本</t>
+    <t>同盟国军事佔领日本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -1115,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9F%E8%BB%8D%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E5%AE%98%E7%B8%BD%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>盟軍最高司令官總司令部</t>
+    <t>盟军最高司令官总司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8B%99%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>國務大臣</t>
+    <t>国务大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%A5%9E%E5%99%A8</t>
@@ -1133,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%92%AB%E9%8F%A1</t>
   </si>
   <si>
-    <t>八咫鏡</t>
+    <t>八咫镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%87%8D%E5%8E%BF</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%8B%A2%E5%B8%82</t>
   </si>
   <si>
-    <t>伊勢市</t>
+    <t>伊势市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%8A%BF%E7%A5%9E%E5%AE%AB</t>
@@ -1157,13 +1145,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%8F%A2%E9%9B%B2%E5%8A%8D</t>
   </si>
   <si>
-    <t>天叢雲劍</t>
+    <t>天丛云剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E7%9B%9E%E5%97%9A%E5%B0%8A</t>
   </si>
   <si>
-    <t>素盞嗚尊</t>
+    <t>素盏呜尊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%8F%A4%E5%B1%8B</t>
@@ -1181,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E7%94%B0%E7%A5%9E%E5%AE%AE</t>
   </si>
   <si>
-    <t>熱田神宮</t>
+    <t>热田神宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%B0%BA%E7%90%BC%E5%8B%BE%E7%8E%89</t>
@@ -1193,9 +1181,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC</t>
   </si>
   <si>
-    <t>东京</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%B2%90%E5%A4%A7%E8%9B%87</t>
   </si>
   <si>
@@ -1205,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%87%E4%B9%8B%E6%B5%A6</t>
   </si>
   <si>
-    <t>壇之浦</t>
+    <t>坛之浦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E5%A4%A9%E7%9A%87</t>
@@ -1229,25 +1214,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%B0%8F%E6%9D%BE%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後小松天皇</t>
+    <t>后小松天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%BE%9C%E5%B1%B1%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後龜山天皇</t>
+    <t>后龟山天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>世紀</t>
+    <t>世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B6%93%E5%87%BA%E7%89%88</t>
   </si>
   <si>
-    <t>聯經出版</t>
+    <t>联经出版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A4%A9%E7%9A%87%E5%88%97%E8%A1%A8</t>
@@ -1301,19 +1286,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E7%8E%8B_(%E6%9D%B1%E4%BA%9E)</t>
   </si>
   <si>
-    <t>親王 (東亞)</t>
+    <t>亲王 (东亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E7%8E%8B%E5%A6%83</t>
   </si>
   <si>
-    <t>親王妃</t>
+    <t>亲王妃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%A6%AA%E7%8E%8B</t>
   </si>
   <si>
-    <t>內親王</t>
+    <t>内亲王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%A6%83</t>
@@ -1331,13 +1316,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%AE%B6</t>
   </si>
   <si>
-    <t>宮家</t>
+    <t>宫家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%AE%AE%E5%AE%B6</t>
   </si>
   <si>
-    <t>直宮家</t>
+    <t>直宫家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E6%97%8F</t>
@@ -1349,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E6%94%BF</t>
   </si>
   <si>
-    <t>攝政</t>
+    <t>摄政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A1%E5%8D%B0</t>
@@ -1367,9 +1352,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%8B%A2%E7%A5%9E%E5%AE%AE</t>
   </si>
   <si>
-    <t>伊勢神宮</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E_(%E7%A5%9E%E9%81%93)</t>
   </si>
   <si>
@@ -1385,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%A4%E5%85%B8%E7%AF%84</t>
   </si>
   <si>
-    <t>皇室典範</t>
+    <t>皇室典范</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E6%A8%82_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>雅樂 (日本)</t>
+    <t>雅乐 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B9%B4%E9%9E%A0</t>
@@ -1415,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B9%8B%E4%B8%B8%E5%B0%9A%E8%97%8F%E9%A4%A8</t>
   </si>
   <si>
-    <t>三之丸尚藏館</t>
+    <t>三之丸尚藏馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%BE%A1%E6%89%80</t>
@@ -1427,19 +1409,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%85%A7%E5%BB%B3</t>
   </si>
   <si>
-    <t>宮內廳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%8D%E5%BE%9E</t>
   </si>
   <si>
-    <t>侍從</t>
+    <t>侍从</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%AE%E8%AD%A6%E5%AF%9F%E6%9C%AC%E9%83%A8</t>
   </si>
   <si>
-    <t>皇宮警察本部</t>
+    <t>皇宫警察本部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B9%8B%E4%BB%A3</t>
@@ -1457,31 +1436,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A4%A9%E7%9A%87%E4%B8%96%E7%B3%BB%E5%9C%96_(%E5%B9%B3%E5%AE%89%E6%99%82%E4%BB%A3%E5%8F%8A%E4%BB%A5%E5%89%8D)</t>
   </si>
   <si>
-    <t>日本天皇世系圖 (平安時代及以前)</t>
+    <t>日本天皇世系图 (平安时代及以前)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A4%A9%E7%9A%87%E4%B8%96%E7%B3%BB%E5%9C%96_(%E9%8E%8C%E5%80%89%E6%99%82%E4%BB%A3%E8%87%B3%E4%BB%8A)</t>
   </si>
   <si>
-    <t>日本天皇世系圖 (鎌倉時代至今)</t>
+    <t>日本天皇世系图 (鎌仓时代至今)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>神話</t>
+    <t>神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%8F%E9%9D%96%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>綏靖天皇</t>
+    <t>绥靖天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%AF%A7%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>安寧天皇</t>
+    <t>安宁天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%BF%E5%BE%B7%E5%A4%A9%E7%9A%87</t>
@@ -1505,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9D%E9%9D%88%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>孝靈天皇</t>
+    <t>孝灵天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9D%E5%85%83%E5%A4%A9%E7%9A%87</t>
@@ -1517,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%8C%96%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>開化天皇</t>
+    <t>开化天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%87%E7%A5%9E%E5%A4%A9%E7%9A%87</t>
@@ -1541,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%8B%99%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>成務天皇</t>
+    <t>成务天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E5%93%80%E5%A4%A9%E7%9A%87</t>
@@ -1565,9 +1544,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%A5%9E%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>應神天皇</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%BE%B7%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
@@ -1607,19 +1583,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%AF%A7%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>清寧天皇</t>
+    <t>清宁天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E5%AE%97%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>顯宗天皇</t>
+    <t>显宗天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E8%B3%A2%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>仁賢天皇</t>
+    <t>仁贤天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%83%88%E5%A4%A9%E7%9A%87</t>
@@ -1631,13 +1607,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E9%AB%94%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>繼體天皇</t>
+    <t>继体天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%96%91%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>安閑天皇</t>
+    <t>安闲天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%8C%96%E5%A4%A9%E7%9A%87</t>
@@ -1649,19 +1625,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E9%B3%A5%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>飛鳥時代</t>
+    <t>飞鸟时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%BD%E6%98%8E%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>欽明天皇</t>
+    <t>钦明天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%8F%E9%81%94%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>敏達天皇</t>
+    <t>敏达天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E6%98%8E%E5%A4%A9%E7%9A%87</t>
@@ -1685,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E6%A5%B5%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>皇極天皇</t>
+    <t>皇极天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9D%E5%BE%B7%E5%A4%A9%E7%9A%87</t>
@@ -1709,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E7%B5%B1%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>持統天皇</t>
+    <t>持统天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%AD%A6%E5%A4%A9%E7%9A%87</t>
@@ -1727,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E8%89%AF%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>奈良時代</t>
+    <t>奈良时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%AD%A3%E5%A4%A9%E7%9A%87</t>
@@ -1745,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9D%E8%AC%99%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>孝謙天皇</t>
+    <t>孝谦天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B3%E4%BB%81%E5%A4%A9%E7%9A%87</t>
@@ -1769,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%AE%89%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>平安時代</t>
+    <t>平安时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%9F%8E%E5%A4%A9%E7%9A%87</t>
@@ -1811,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E6%88%90%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>陽成天皇</t>
+    <t>阳成天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AD%9D%E5%A4%A9%E7%9A%87</t>
@@ -1853,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E8%9E%8D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>圓融天皇</t>
+    <t>圆融天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%B1%B1%E5%A4%A9%E7%9A%87</t>
@@ -1865,37 +1841,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%A2%9D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>一條天皇</t>
+    <t>一条天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%A2%9D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>三條天皇</t>
+    <t>三条天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E4%B8%80%E6%A2%9D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後一條天皇</t>
+    <t>后一条天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%B1%E9%9B%80%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後朱雀天皇</t>
+    <t>后朱雀天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%86%B7%E6%B3%89%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後冷泉天皇</t>
+    <t>后冷泉天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E4%B8%89%E6%A2%9D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後三條天皇</t>
+    <t>后三条天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B2%B3%E5%A4%A9%E7%9A%87</t>
@@ -1913,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E7%BE%BD%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>鳥羽天皇</t>
+    <t>鸟羽天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%87%E5%BE%B7%E5%A4%A9%E7%9A%87</t>
@@ -1925,31 +1901,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E8%A1%9B%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>近衛天皇</t>
+    <t>近卫天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%99%BD%E6%B2%B3%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後白河天皇</t>
+    <t>后白河天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%A2%9D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>二條天皇</t>
+    <t>二条天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%A2%9D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>六條天皇</t>
+    <t>六条天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%80%89%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>高倉天皇</t>
+    <t>高仓天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E9%B8%9F%E7%BE%BD%E5%A4%A9%E7%9A%87</t>
@@ -1961,19 +1937,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%8C%E5%80%89%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>鎌倉時代</t>
+    <t>鎌仓时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BE%A1%E9%96%80%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>土御門天皇</t>
+    <t>土御门天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E5%BE%B7%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>順德天皇</t>
+    <t>顺德天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E6%81%AD%E5%A4%A9%E7%9A%87</t>
@@ -1985,67 +1961,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%A0%80%E6%B2%B3%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後堀河天皇</t>
+    <t>后堀河天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E6%A2%9D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>四條天皇</t>
+    <t>四条天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%B5%AF%E5%B3%A8%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後嵯峨天皇</t>
+    <t>后嵯峨天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%B7%B1%E8%8D%89%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後深草天皇</t>
+    <t>后深草天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E5%B1%B1%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>龜山天皇</t>
+    <t>龟山天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%AE%87%E5%A4%9A%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後宇多天皇</t>
+    <t>后宇多天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E8%A6%8B%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>伏見天皇</t>
+    <t>伏见天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E4%BC%8F%E8%A6%8B%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後伏見天皇</t>
+    <t>后伏见天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E4%BA%8C%E6%A2%9D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後二條天皇</t>
+    <t>后二条天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%9C%92%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>花園天皇</t>
+    <t>花园天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%86%8D%E9%86%90%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後醍醐天皇</t>
+    <t>后醍醐天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E7%94%BA%E6%97%B6%E4%BB%A3</t>
@@ -2057,19 +2033,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9D%91%E4%B8%8A%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後村上天皇</t>
+    <t>后村上天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%85%B6%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>長慶天皇</t>
+    <t>长庆天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%9A%B4%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>光嚴天皇</t>
+    <t>光严天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%98%8E%E5%A4%A9%E7%9A%87</t>
@@ -2087,73 +2063,70 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%85%89%E5%9A%B4%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後光嚴天皇</t>
+    <t>后光严天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%9C%93%E8%9E%8D%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後圓融天皇</t>
+    <t>后圆融天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%B1%E5%85%89%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>稱光天皇</t>
+    <t>称光天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%8A%B1%E5%9C%92%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後花園天皇</t>
+    <t>后花园天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%9C%9F%E5%BE%A1%E9%96%80%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後土御門天皇</t>
+    <t>后土御门天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9F%8F%E5%8E%9F%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後柏原天皇</t>
+    <t>后柏原天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%A5%88%E8%89%AF%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後奈良天皇</t>
+    <t>后奈良天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E8%A6%AA%E7%94%BA%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>正親町天皇</t>
+    <t>正亲町天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%9F%E6%A1%83%E5%B1%B1%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>安土桃山時代</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%99%BD%E6%88%90%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後陽成天皇</t>
+    <t>后阳成天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%88%B6%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>江戶時代</t>
+    <t>江户时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%B0%B4%E5%B0%BE%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後水尾天皇</t>
+    <t>后水尾天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%AD%A3%E5%A4%A9%E7%9A%87</t>
@@ -2165,55 +2138,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%85%89%E6%98%8E%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後光明天皇</t>
+    <t>后光明天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%A5%BF%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後西天皇</t>
+    <t>后西天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E5%85%83%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>靈元天皇</t>
+    <t>灵元天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B1%B1%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>東山天皇</t>
+    <t>东山天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BE%A1%E9%96%80%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>中御門天皇</t>
+    <t>中御门天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AB%BB%E7%94%BA%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>櫻町天皇</t>
+    <t>樱町天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%83%E5%9C%92%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>桃園天皇</t>
+    <t>桃园天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%AB%BB%E7%94%BA%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後櫻町天皇</t>
+    <t>后樱町天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%A1%83%E5%9C%92%E5%A4%A9%E7%9A%87</t>
   </si>
   <si>
-    <t>後桃園天皇</t>
+    <t>后桃园天皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%A0%BC%E5%A4%A9%E7%9A%87</t>
@@ -2261,9 +2234,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>国家元首</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
@@ -2393,25 +2363,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C_(%E5%8D%97%E4%BA%AC)</t>
   </si>
   <si>
-    <t>中華民國臨時政府 (南京)</t>
+    <t>中华民国临时政府 (南京)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%A7%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國大總統</t>
+    <t>中华民国大总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>國民政府主席</t>
+    <t>国民政府主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -2441,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93%E9%A6%96%E9%A0%98%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>北韓首領列表</t>
+    <t>北韩首领列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -2663,7 +2633,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>北賽普勒斯總統</t>
+    <t>北赛普勒斯总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E6%80%BB%E7%BB%9F</t>
@@ -2741,7 +2711,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2759,7 +2729,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%9A%87</t>
@@ -5430,7 +5400,7 @@
         <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5456,10 +5426,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -5485,10 +5455,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5514,10 +5484,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5543,10 +5513,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5572,10 +5542,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5601,10 +5571,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5630,10 +5600,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5659,10 +5629,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5688,10 +5658,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5717,10 +5687,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5746,10 +5716,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5775,10 +5745,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>7</v>
@@ -5804,10 +5774,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5833,10 +5803,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -5862,10 +5832,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5891,10 +5861,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -5920,10 +5890,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -5949,10 +5919,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -5978,10 +5948,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6007,10 +5977,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6036,10 +6006,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6065,10 +6035,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -6094,10 +6064,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6123,10 +6093,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -6152,10 +6122,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6181,10 +6151,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6210,10 +6180,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6239,10 +6209,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -6268,10 +6238,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>21</v>
@@ -6297,10 +6267,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>35</v>
@@ -6326,10 +6296,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6355,10 +6325,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6384,10 +6354,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -6413,10 +6383,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6442,10 +6412,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -6471,10 +6441,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6500,10 +6470,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6529,10 +6499,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6558,10 +6528,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6587,10 +6557,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>7</v>
@@ -6616,10 +6586,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6645,10 +6615,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6674,10 +6644,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6703,10 +6673,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6732,10 +6702,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6761,10 +6731,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>9</v>
@@ -6790,10 +6760,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6819,10 +6789,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6848,10 +6818,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -6877,10 +6847,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6906,10 +6876,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6935,10 +6905,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6964,10 +6934,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6993,10 +6963,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7022,10 +6992,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -7051,10 +7021,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7080,10 +7050,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7109,10 +7079,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7138,10 +7108,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7167,10 +7137,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7196,10 +7166,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7225,10 +7195,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7254,10 +7224,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7312,10 +7282,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7341,10 +7311,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7370,10 +7340,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7399,10 +7369,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7428,10 +7398,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>12</v>
@@ -7457,10 +7427,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>7</v>
@@ -7486,10 +7456,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7515,10 +7485,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7544,10 +7514,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -7573,10 +7543,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7602,10 +7572,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7631,10 +7601,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7660,10 +7630,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -7689,10 +7659,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7718,10 +7688,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7747,10 +7717,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7776,10 +7746,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7805,10 +7775,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7834,10 +7804,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7863,10 +7833,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7892,10 +7862,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7921,10 +7891,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7950,10 +7920,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7979,10 +7949,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8008,10 +7978,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8037,10 +8007,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8066,10 +8036,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8095,10 +8065,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8124,10 +8094,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8153,10 +8123,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -8182,10 +8152,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8211,10 +8181,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8240,10 +8210,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8269,10 +8239,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -8298,10 +8268,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8327,10 +8297,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8356,10 +8326,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8385,10 +8355,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8414,10 +8384,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -8443,10 +8413,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8472,10 +8442,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8501,10 +8471,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>160</v>
+      </c>
+      <c r="F186" t="s">
         <v>161</v>
-      </c>
-      <c r="F186" t="s">
-        <v>162</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8530,10 +8500,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8559,10 +8529,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>186</v>
+      </c>
+      <c r="F188" t="s">
         <v>187</v>
-      </c>
-      <c r="F188" t="s">
-        <v>188</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8588,10 +8558,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8617,10 +8587,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>8</v>
@@ -8646,10 +8616,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -8675,10 +8645,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8704,10 +8674,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8733,10 +8703,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8762,10 +8732,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -8791,10 +8761,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8820,10 +8790,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8849,10 +8819,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8878,10 +8848,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8907,10 +8877,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -8936,10 +8906,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8965,10 +8935,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8994,10 +8964,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9023,10 +8993,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9052,10 +9022,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9081,10 +9051,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -9110,10 +9080,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9139,10 +9109,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9197,10 +9167,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9226,10 +9196,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9255,10 +9225,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9284,10 +9254,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9313,10 +9283,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9342,10 +9312,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9371,10 +9341,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9400,10 +9370,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9429,10 +9399,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
@@ -9458,10 +9428,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9487,10 +9457,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9516,10 +9486,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9545,10 +9515,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -9574,10 +9544,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9603,10 +9573,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9632,10 +9602,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9661,10 +9631,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9690,10 +9660,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9719,10 +9689,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9748,10 +9718,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9777,10 +9747,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9806,10 +9776,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9835,10 +9805,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9864,10 +9834,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9893,10 +9863,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>64</v>
@@ -9922,10 +9892,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9951,10 +9921,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9980,10 +9950,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10009,10 +9979,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10038,10 +10008,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10067,10 +10037,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10096,10 +10066,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10125,10 +10095,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10154,10 +10124,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>36</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10183,10 +10153,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10212,10 +10182,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10241,10 +10211,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10270,10 +10240,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10299,10 +10269,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F248" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10328,10 +10298,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10357,10 +10327,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10386,10 +10356,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10444,10 +10414,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F253" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10473,10 +10443,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10502,10 +10472,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10531,10 +10501,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10560,10 +10530,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10589,10 +10559,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10618,10 +10588,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10647,10 +10617,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10676,10 +10646,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10705,10 +10675,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10734,10 +10704,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10763,10 +10733,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10792,10 +10762,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10821,10 +10791,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -10850,10 +10820,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10879,10 +10849,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>18</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10908,10 +10878,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10937,10 +10907,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10966,10 +10936,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10995,10 +10965,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11024,10 +10994,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11053,10 +11023,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11082,10 +11052,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11111,10 +11081,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11140,10 +11110,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11169,10 +11139,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11198,10 +11168,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11227,10 +11197,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11256,10 +11226,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11285,10 +11255,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11314,10 +11284,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11343,10 +11313,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11372,10 +11342,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11401,10 +11371,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F286" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11430,10 +11400,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>238</v>
+      </c>
+      <c r="F287" t="s">
         <v>239</v>
-      </c>
-      <c r="F287" t="s">
-        <v>240</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11459,10 +11429,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11488,10 +11458,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11517,10 +11487,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11546,10 +11516,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11575,10 +11545,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11604,10 +11574,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11633,10 +11603,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>212</v>
+      </c>
+      <c r="F294" t="s">
         <v>213</v>
-      </c>
-      <c r="F294" t="s">
-        <v>214</v>
       </c>
       <c r="G294" t="n">
         <v>6</v>
@@ -11662,10 +11632,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11691,10 +11661,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11720,10 +11690,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -11749,10 +11719,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11778,10 +11748,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11807,10 +11777,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11836,10 +11806,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11865,10 +11835,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11894,10 +11864,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F303" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11923,10 +11893,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11952,10 +11922,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11981,10 +11951,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F306" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12010,10 +11980,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F307" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12039,10 +12009,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F308" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -12068,10 +12038,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F309" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12097,10 +12067,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F310" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12126,10 +12096,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F311" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12155,10 +12125,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F312" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12184,10 +12154,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G313" t="n">
         <v>3</v>
@@ -12213,10 +12183,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12242,10 +12212,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12271,10 +12241,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -12300,10 +12270,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12329,10 +12299,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12358,10 +12328,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12387,10 +12357,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12416,10 +12386,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12445,10 +12415,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12474,10 +12444,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12503,10 +12473,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12532,10 +12502,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12561,10 +12531,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12590,10 +12560,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12619,10 +12589,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12648,10 +12618,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12677,10 +12647,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12706,10 +12676,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12735,10 +12705,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12764,10 +12734,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F333" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12793,10 +12763,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F334" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12822,10 +12792,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F335" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12851,10 +12821,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F336" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12880,10 +12850,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F337" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12909,10 +12879,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F338" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12938,10 +12908,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F339" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12967,10 +12937,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F340" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12996,10 +12966,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F341" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13025,10 +12995,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F342" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13054,10 +13024,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F343" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13083,10 +13053,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F344" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13112,10 +13082,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F345" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13141,10 +13111,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F346" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13170,10 +13140,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F347" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G347" t="n">
         <v>3</v>
@@ -13199,10 +13169,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F348" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13228,10 +13198,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F349" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13257,10 +13227,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F350" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13286,10 +13256,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F351" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13315,10 +13285,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F352" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -13344,10 +13314,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F353" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13373,10 +13343,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F354" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13402,10 +13372,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F355" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13431,10 +13401,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F356" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13460,10 +13430,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F357" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13489,10 +13459,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F358" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13518,10 +13488,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F359" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13547,10 +13517,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13576,10 +13546,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F361" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13605,10 +13575,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F362" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13634,10 +13604,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F363" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -13663,10 +13633,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F364" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13692,10 +13662,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F365" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13721,10 +13691,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F366" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13750,10 +13720,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F367" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13779,10 +13749,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F368" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13808,10 +13778,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F369" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13837,10 +13807,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F370" t="s">
-        <v>706</v>
+        <v>324</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13866,10 +13836,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F371" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13895,10 +13865,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F372" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13924,10 +13894,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F373" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13953,10 +13923,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F374" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13982,10 +13952,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F375" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14011,10 +13981,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F376" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14040,10 +14010,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F377" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14069,10 +14039,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F378" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14098,10 +14068,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F379" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14127,10 +14097,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F380" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14156,10 +14126,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F381" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14185,10 +14155,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F382" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14214,10 +14184,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F383" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14243,10 +14213,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F384" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14272,10 +14242,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F385" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14301,10 +14271,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F386" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14330,10 +14300,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F387" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14359,10 +14329,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F388" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14388,10 +14358,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>184</v>
+      </c>
+      <c r="F389" t="s">
         <v>185</v>
-      </c>
-      <c r="F389" t="s">
-        <v>186</v>
       </c>
       <c r="G389" t="n">
         <v>5</v>
@@ -14417,10 +14387,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F390" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14446,10 +14416,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F391" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14475,10 +14445,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F392" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14504,10 +14474,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F393" t="s">
-        <v>748</v>
+        <v>156</v>
       </c>
       <c r="G393" t="n">
         <v>3</v>
@@ -14533,10 +14503,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F394" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14562,10 +14532,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F395" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14591,10 +14561,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F396" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14620,10 +14590,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F397" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14649,10 +14619,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F398" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14678,10 +14648,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F399" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14707,10 +14677,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F400" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14736,10 +14706,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F401" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14765,10 +14735,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F402" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14794,10 +14764,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F403" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14823,10 +14793,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F404" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14852,10 +14822,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F405" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14881,10 +14851,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F406" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14910,10 +14880,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F407" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14939,10 +14909,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F408" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G408" t="n">
         <v>3</v>
@@ -14968,10 +14938,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F409" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14997,10 +14967,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F410" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G410" t="n">
         <v>9</v>
@@ -15026,10 +14996,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F411" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15055,10 +15025,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F412" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G412" t="n">
         <v>21</v>
@@ -15084,10 +15054,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F413" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15113,10 +15083,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F414" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15142,10 +15112,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F415" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15171,10 +15141,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F416" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15200,10 +15170,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F417" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15229,10 +15199,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F418" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15258,10 +15228,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F419" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15287,10 +15257,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F420" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15316,10 +15286,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F421" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15345,10 +15315,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F422" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15374,10 +15344,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F423" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15403,10 +15373,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F424" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15432,10 +15402,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F425" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15461,10 +15431,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F426" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15490,10 +15460,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F427" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15519,10 +15489,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F428" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15548,10 +15518,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F429" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15577,10 +15547,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F430" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15606,10 +15576,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F431" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15635,10 +15605,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F432" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15664,10 +15634,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F433" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15693,10 +15663,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="F434" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15722,10 +15692,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F435" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15751,10 +15721,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F436" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15780,10 +15750,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F437" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15809,10 +15779,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F438" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15838,10 +15808,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F439" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15867,10 +15837,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F440" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="G440" t="n">
         <v>3</v>
@@ -15896,10 +15866,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F441" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15925,10 +15895,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F442" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15954,10 +15924,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F443" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15983,10 +15953,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F444" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16012,10 +15982,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F445" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16041,10 +16011,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F446" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16070,10 +16040,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F447" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16099,10 +16069,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F448" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16128,10 +16098,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F449" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16157,10 +16127,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F450" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16186,10 +16156,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F451" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16215,10 +16185,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F452" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16244,10 +16214,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F453" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16273,10 +16243,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F454" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16302,10 +16272,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F455" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16331,10 +16301,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F456" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16360,10 +16330,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F457" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16389,10 +16359,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F458" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16418,10 +16388,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F459" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16447,10 +16417,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F460" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16476,10 +16446,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F461" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16505,10 +16475,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F462" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16534,10 +16504,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F463" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16563,10 +16533,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F464" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -16592,10 +16562,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F465" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16621,10 +16591,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F466" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16650,10 +16620,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F467" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16679,10 +16649,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="F468" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16708,10 +16678,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F469" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16737,10 +16707,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F470" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16766,10 +16736,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F471" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16795,10 +16765,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F472" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16824,10 +16794,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F473" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G473" t="n">
         <v>3</v>
@@ -16853,10 +16823,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F474" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16882,10 +16852,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F475" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16911,10 +16881,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F476" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16940,10 +16910,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F477" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="G477" t="n">
         <v>7</v>
@@ -16969,10 +16939,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F478" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
